--- a/data/trans_bre/P1002-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1002-Estudios-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>1.238972768225939</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.9991808486580778</v>
+        <v>0.9991808486580785</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2963155557123873</v>
+        <v>0.3132928423350229</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.774888071469698</v>
+        <v>6.687214483832654</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.027153906691519</v>
+        <v>7.898600235435504</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7.66803711090369</v>
+        <v>6.886361444530949</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.02519319581730924</v>
+        <v>0.02448279265696365</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4634071279094227</v>
+        <v>0.431384131783591</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7412948137440191</v>
+        <v>0.738901330470931</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.5887228085138775</v>
+        <v>0.507628093254056</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.469836009410817</v>
+        <v>5.696606165876751</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.20893793605737</v>
+        <v>13.17575530708119</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.06313875965727</v>
+        <v>14.50578814990232</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.08889129537771</v>
+        <v>13.89024278836882</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6406915926781879</v>
+        <v>0.6367492469579453</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.161664871099734</v>
+        <v>1.154352109445476</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.994334170527993</v>
+        <v>1.972903953907268</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.571973814007279</v>
+        <v>1.51985235008141</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.867310692928732</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.73018633354679</v>
+        <v>2.730186333546789</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.160368170986865</v>
@@ -749,7 +749,7 @@
         <v>0.619508510113563</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.542320263847039</v>
+        <v>0.5423202638470386</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.760348921830211</v>
+        <v>1.754583877890226</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.111750399194071</v>
+        <v>3.222822476304839</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.293995886786516</v>
+        <v>1.440784886606237</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.175991710853314</v>
+        <v>1.232481764463205</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.52134743670102</v>
+        <v>0.4644357851055111</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5656838268846606</v>
+        <v>0.6339493564223964</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2327788445324079</v>
+        <v>0.2611027886503282</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2112608190698656</v>
+        <v>0.2045700589596913</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.767707477085876</v>
+        <v>4.629991065010943</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.670785932991305</v>
+        <v>6.654174591521191</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.426226567321764</v>
+        <v>4.381657891218975</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.098478858575393</v>
+        <v>4.152057584653183</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.070580116792622</v>
+        <v>2.078246476927406</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.666757955524381</v>
+        <v>1.714730509018102</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.080929647120588</v>
+        <v>1.117102723464045</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.963615054766561</v>
+        <v>1.002168624948803</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.545498895047776</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.573851141123329</v>
+        <v>3.573851141123331</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2905102350301452</v>
@@ -849,7 +849,7 @@
         <v>0.5268605346306723</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.948411267886908</v>
+        <v>0.9484112678869087</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.375506019278911</v>
+        <v>-1.22580501283014</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.207016626781769</v>
+        <v>-1.362383946194333</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.7573529411014014</v>
+        <v>-0.7808942261901453</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9484504820845576</v>
+        <v>1.010844494129043</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3057406825871021</v>
+        <v>-0.2683871909599531</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2992609111189223</v>
+        <v>-0.295046311281485</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2259185486030005</v>
+        <v>-0.2456238055586129</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.156246889834356</v>
+        <v>0.1568224489052111</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.758063445951628</v>
+        <v>3.832455952366383</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.481748189367575</v>
+        <v>4.405498133585672</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.844154318953466</v>
+        <v>3.742343211877926</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.919224899844016</v>
+        <v>5.990980594189947</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.58420902586996</v>
+        <v>1.522666109869942</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.525927914991067</v>
+        <v>2.540011275719028</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.032028780152407</v>
+        <v>1.920265458324366</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.241731354726459</v>
+        <v>2.144296519950647</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>5.334157679911057</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5.029610576682021</v>
+        <v>5.029610576682018</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6307411052423773</v>
@@ -949,7 +949,7 @@
         <v>0.9931624655518455</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.8758642763105458</v>
+        <v>0.8758642763105453</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.063659110353194</v>
+        <v>2.051638598356188</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.683754294726623</v>
+        <v>5.716584160112874</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.958421683228934</v>
+        <v>4.027538085461707</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.696413899428171</v>
+        <v>3.818633974168185</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3643941518647506</v>
+        <v>0.3505054689953788</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7724234764946191</v>
+        <v>0.7660006901304665</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6612576847368072</v>
+        <v>0.6767684212460601</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.5713606065579198</v>
+        <v>0.5898952478283834</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.572427938750856</v>
+        <v>4.56999767347823</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.709104053623417</v>
+        <v>8.620172830330167</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.704577648171632</v>
+        <v>6.653861320884591</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.173707766996872</v>
+        <v>6.133050435202563</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9833234910823551</v>
+        <v>0.9665475163289505</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.464120336504936</v>
+        <v>1.427014156610194</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.385888532462646</v>
+        <v>1.401246952592507</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.216462208149022</v>
+        <v>1.193048982772035</v>
       </c>
     </row>
     <row r="16">
